--- a/Project/TongHopQuyCongTy.xlsx
+++ b/Project/TongHopQuyCongTy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF037862-BD41-47D9-B71F-0CA18424D3FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE4B04E-9180-48BE-9AE9-93094D9F8B88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thu" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>Time</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Quạt điều hòa</t>
+  </si>
+  <si>
+    <t>18/04/2021</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -446,12 +449,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -574,6 +588,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,7 +604,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -887,16 +906,16 @@
   </cols>
   <sheetData>
     <row r="7" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H9" s="23" t="s">
@@ -966,15 +985,15 @@
   </cols>
   <sheetData>
     <row r="4" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="42"/>
       <c r="K4" s="45">
         <f>SUM(H7:H18)</f>
-        <v>28695000</v>
+        <v>28982000</v>
       </c>
       <c r="L4" s="46" t="s">
         <v>3</v>
@@ -982,9 +1001,9 @@
       <c r="M4" s="42"/>
     </row>
     <row r="5" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="42"/>
       <c r="K5" s="52"/>
       <c r="L5" s="42"/>
@@ -1030,7 +1049,7 @@
       </c>
       <c r="H8" s="5">
         <f>Chi_phi_hoat_dong</f>
-        <v>2801000</v>
+        <v>3088000</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>67</v>
@@ -1128,16 +1147,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J4" s="14" t="s">
@@ -1287,7 +1306,7 @@
   <dimension ref="I3:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,19 +1320,19 @@
   <sheetData>
     <row r="3" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I3" s="50"/>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I4" s="50"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" spans="9:16" x14ac:dyDescent="0.25">
       <c r="J5" s="13" t="s">
@@ -1621,10 +1640,24 @@
         <v>42</v>
       </c>
     </row>
+    <row r="26" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J26" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="1">
+        <v>287000</v>
+      </c>
+      <c r="M26" s="62" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="29" spans="10:15" x14ac:dyDescent="0.25">
       <c r="N29" s="20">
         <f>SUM(L6:L32)</f>
-        <v>2801000</v>
+        <v>3088000</v>
       </c>
       <c r="O29" s="12" t="s">
         <v>3</v>
@@ -1642,7 +1675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8BC094-5536-4558-8EA1-C96E0F45453E}">
   <dimension ref="I2:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -1654,20 +1687,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I4" s="16" t="s">
@@ -1743,7 +1776,7 @@
         <f>K7*J7</f>
         <v>2590000</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="54" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1781,16 +1814,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I6" s="13" t="s">
@@ -1912,7 +1945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48045ABA-9A5B-4D55-856F-C5AF2ED54280}">
   <dimension ref="K3:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -1926,12 +1959,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
       <c r="Q3" s="51">
         <f>SUM(M6:M10)</f>
         <v>7174000</v>
@@ -1941,10 +1974,10 @@
       </c>
     </row>
     <row r="4" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K5" s="36" t="s">
